--- a/docs/ValueSet-presence-valueset.xlsx
+++ b/docs/ValueSet-presence-valueset.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/presence-valueset</t>
+    <t>http://example.org/ig/example/ValueSet/presence-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T09:15:43-05:00</t>
+    <t>2023-04-26T11:15:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,10 +97,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/presence-sct-valueset</t>
-  </si>
-  <si>
-    <t>http://example.org/ValueSet/presence-lnc-valueset</t>
+    <t>http://example.org/ig/example/ValueSet/presence-sct-valueset</t>
+  </si>
+  <si>
+    <t>http://example.org/ig/example/ValueSet/presence-lnc-valueset</t>
   </si>
 </sst>
 </file>

--- a/docs/ValueSet-presence-valueset.xlsx
+++ b/docs/ValueSet-presence-valueset.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/presence-valueset</t>
+    <t>http://example.org/ig/exampleig/ValueSet/presence-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T11:15:05-05:00</t>
+    <t>2023-04-27T11:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,10 +97,10 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/presence-sct-valueset</t>
-  </si>
-  <si>
-    <t>http://example.org/ig/example/ValueSet/presence-lnc-valueset</t>
+    <t>http://example.org/ig/exampleig/ValueSet/presence-sct-valueset</t>
+  </si>
+  <si>
+    <t>http://example.org/ig/exampleig/ValueSet/presence-lnc-valueset</t>
   </si>
 </sst>
 </file>

--- a/docs/ValueSet-presence-valueset.xlsx
+++ b/docs/ValueSet-presence-valueset.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T11:07:01-05:00</t>
+    <t>2023-04-28T11:00:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-presence-valueset.xlsx
+++ b/docs/ValueSet-presence-valueset.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T11:00:43-05:00</t>
+    <t>2023-05-02T14:51:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
